--- a/data/density.xlsx
+++ b/data/density.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plame\Desktop\VS Code Projects\blah\COVID-19 USA EDA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plame\Desktop\COVID-19 in the US EDA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C82C3-34E1-456E-88E5-9E1B7A107EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058473E4-2CDC-4775-86F5-743EE748CF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,6 +2132,12 @@
         <v>0.70484891252444226</v>
       </c>
     </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <f>_xlfn.T.TEST(C2:C45,D2:D45,2,1)</f>
+        <v>1.8140347039062036E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/density.xlsx
+++ b/data/density.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plame\Desktop\COVID-19 in the US EDA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058473E4-2CDC-4775-86F5-743EE748CF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CE69B8-418C-4E18-89D5-A423EB3F72A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1355,7 @@
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1388,8 +1388,16 @@
       <c r="E2">
         <v>1905</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>_xlfn.T.TEST(C2:C45, D2:D45, 1, 2)</f>
+        <v>5.483100625112107E-2</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.T.TEST(C2:D45, C2:E45, 1, 2)</f>
+        <v>7.7382821020357651E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1440,7 +1448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1508,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1525,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1576,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1610,7 +1618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
